--- a/public/ppmp.xlsx
+++ b/public/ppmp.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjmendez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doh7\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97579FD2-13A4-438C-9CDD-1D78BEDC1BB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="PPMP" sheetId="19" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="20" r:id="rId2"/>
     <sheet name="Updated Budget -PMD as of 10-1" sheetId="15" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>CODE</t>
   </si>
@@ -332,14 +331,17 @@
       <t xml:space="preserve">      Technical Specifications for each Item/Project being proposed shall be submitted as part of the PPMP</t>
     </r>
   </si>
+  <si>
+    <t>UNIT COST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -814,23 +816,23 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -856,7 +858,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,19 +870,19 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,27 +918,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -952,7 +954,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -986,13 +988,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,19 +1015,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1036,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1061,7 +1063,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1071,7 +1073,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,7 +1105,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,143 +1147,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1298,24 +1168,162 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 3" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 2 2" xfId="8"/>
+    <cellStyle name="Normal 2 2 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Normal 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1406,23 +1414,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1458,23 +1449,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1650,857 +1624,897 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="82" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" style="79" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="82" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="83" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="84" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="82" customWidth="1"/>
-    <col min="7" max="7" width="8" style="82" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="82" customWidth="1"/>
-    <col min="9" max="11" width="8.5703125" style="82" customWidth="1"/>
-    <col min="12" max="12" width="8" style="82" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="82" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="82" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="82" customWidth="1"/>
-    <col min="17" max="17" width="9" style="82" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="82" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.28515625" style="82"/>
+    <col min="3" max="4" width="13.42578125" style="82" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="83" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="84" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="82" customWidth="1"/>
+    <col min="8" max="8" width="8" style="82" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="82" customWidth="1"/>
+    <col min="10" max="12" width="8.5703125" style="82" customWidth="1"/>
+    <col min="13" max="13" width="8" style="82" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="82" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="82" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="82" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="82" customWidth="1"/>
+    <col min="18" max="18" width="9" style="82" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="82" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.28515625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-    </row>
-    <row r="3" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+    </row>
+    <row r="3" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="81"/>
     </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="79" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="93"/>
     </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="93"/>
     </row>
-    <row r="6" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="129" t="s">
+    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="140" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="125"/>
+      <c r="E7" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="F7" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="G7" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="135"/>
-    </row>
-    <row r="8" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="132"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="144"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="139"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="86" t="s">
+      <c r="D8" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="143"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="H8" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="I8" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="J8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="K8" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="L8" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="M8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="N8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="86" t="s">
+      <c r="O8" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="86" t="s">
+      <c r="P8" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="86" t="s">
+      <c r="Q8" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="87" t="s">
+      <c r="R8" s="87" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="107"/>
       <c r="B9" s="108"/>
       <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="89"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="88"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="88"/>
       <c r="M9" s="88"/>
       <c r="N9" s="88"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="104"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O9" s="88"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="104"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="107"/>
       <c r="B10" s="108"/>
       <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="89"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="89"/>
       <c r="H10" s="89"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="104"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O10" s="88"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="104"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="107"/>
       <c r="B11" s="108"/>
       <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="89"/>
       <c r="H11" s="89"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
       <c r="L11" s="88"/>
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="104"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="88"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="104"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="107"/>
       <c r="B12" s="108"/>
       <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="89"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="89"/>
       <c r="H12" s="89"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="88"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="88"/>
       <c r="M12" s="88"/>
       <c r="N12" s="88"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="104"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O12" s="88"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="104"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="107"/>
       <c r="B13" s="108"/>
       <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="89"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="88"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="88"/>
       <c r="M13" s="88"/>
       <c r="N13" s="88"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="104"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="88"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="104"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="107"/>
       <c r="B14" s="108"/>
       <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="89"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="89"/>
       <c r="H14" s="89"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="88"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="88"/>
       <c r="M14" s="88"/>
       <c r="N14" s="88"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="104"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O14" s="88"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="104"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="107"/>
       <c r="B15" s="108"/>
       <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="89"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="89"/>
       <c r="H15" s="89"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="88"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="104"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="88"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="104"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="107"/>
       <c r="B16" s="108"/>
       <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="89"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="89"/>
       <c r="H16" s="89"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="88"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="88"/>
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="104"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O16" s="88"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="104"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="107"/>
       <c r="B17" s="108"/>
       <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="89"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="89"/>
       <c r="H17" s="89"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="88"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="88"/>
       <c r="M17" s="88"/>
       <c r="N17" s="88"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="104"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="88"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="104"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="107"/>
       <c r="B18" s="108"/>
       <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="89"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="89"/>
       <c r="H18" s="89"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="88"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="104"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O18" s="88"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="104"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="107"/>
       <c r="B19" s="108"/>
       <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="89"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="89"/>
       <c r="H19" s="89"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="88"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="88"/>
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="104"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="88"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="104"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="107"/>
       <c r="B20" s="108"/>
       <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="89"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="89"/>
       <c r="H20" s="89"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="88"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
       <c r="N20" s="88"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="104"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="88"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="104"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="107"/>
       <c r="B21" s="108"/>
       <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="89"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="89"/>
       <c r="H21" s="89"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="88"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
       <c r="N21" s="88"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="104"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="88"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="104"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="107"/>
       <c r="B22" s="108"/>
       <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="89"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="106"/>
       <c r="G22" s="89"/>
       <c r="H22" s="89"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
       <c r="L22" s="88"/>
       <c r="M22" s="88"/>
       <c r="N22" s="88"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="104"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="88"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="104"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="107"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="89"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="106"/>
       <c r="G23" s="89"/>
       <c r="H23" s="89"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="88"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
       <c r="L23" s="88"/>
       <c r="M23" s="88"/>
       <c r="N23" s="88"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="104"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="88"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="104"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="107"/>
       <c r="B24" s="116"/>
       <c r="C24" s="114"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="89"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="89"/>
       <c r="H24" s="89"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="88"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="104"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O24" s="88"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="104"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="107"/>
       <c r="B25" s="117"/>
       <c r="C25" s="118"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="89"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="89"/>
       <c r="H25" s="89"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="88"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
       <c r="L25" s="88"/>
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="104"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="88"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="104"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="107"/>
       <c r="B26" s="119"/>
       <c r="C26" s="114"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="89"/>
       <c r="H26" s="89"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="88"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
       <c r="L26" s="88"/>
       <c r="M26" s="88"/>
       <c r="N26" s="88"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="104"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="88"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="104"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="107"/>
       <c r="B27" s="119"/>
       <c r="C27" s="120"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="89"/>
       <c r="H27" s="89"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="88"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
       <c r="N27" s="88"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="104"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="88"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="104"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="107"/>
       <c r="B28" s="116"/>
       <c r="C28" s="120"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="89"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="105"/>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="88"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
       <c r="L28" s="88"/>
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="104"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="88"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="104"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="107"/>
       <c r="B29" s="116"/>
       <c r="C29" s="120"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="105"/>
       <c r="G29" s="89"/>
       <c r="H29" s="89"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
       <c r="L29" s="88"/>
       <c r="M29" s="88"/>
       <c r="N29" s="88"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="104"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="88"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="104"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="107"/>
       <c r="B30" s="116"/>
       <c r="C30" s="120"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="89"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="105"/>
       <c r="G30" s="89"/>
       <c r="H30" s="89"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="88"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
       <c r="L30" s="88"/>
       <c r="M30" s="88"/>
       <c r="N30" s="88"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="104"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="88"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="104"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="107"/>
       <c r="B31" s="116"/>
       <c r="C31" s="121"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="89"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="105"/>
       <c r="G31" s="89"/>
       <c r="H31" s="89"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="88"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="89"/>
       <c r="L31" s="88"/>
       <c r="M31" s="88"/>
       <c r="N31" s="88"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="104"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="88"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="104"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="107"/>
       <c r="B32" s="116"/>
       <c r="C32" s="120"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="89"/>
       <c r="H32" s="89"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="88"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="89"/>
       <c r="L32" s="88"/>
       <c r="M32" s="88"/>
       <c r="N32" s="88"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="104"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="88"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="104"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="107"/>
       <c r="B33" s="116"/>
       <c r="C33" s="120"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="89"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="105"/>
       <c r="G33" s="89"/>
       <c r="H33" s="89"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="88"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="89"/>
       <c r="L33" s="88"/>
       <c r="M33" s="88"/>
       <c r="N33" s="88"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="104"/>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="88"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="104"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="107"/>
       <c r="B34" s="116"/>
       <c r="C34" s="122"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="89"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="105"/>
       <c r="G34" s="89"/>
       <c r="H34" s="89"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="88"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="89"/>
       <c r="L34" s="88"/>
       <c r="M34" s="88"/>
       <c r="N34" s="88"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="104"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="88"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="104"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="107"/>
       <c r="B35" s="116"/>
       <c r="C35" s="123"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="89"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="105"/>
       <c r="G35" s="89"/>
       <c r="H35" s="89"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="88"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
       <c r="N35" s="88"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="104"/>
-    </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="88"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="112"/>
+      <c r="S35" s="104"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="107"/>
       <c r="B36" s="116"/>
       <c r="C36" s="123"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="89"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="89"/>
       <c r="H36" s="89"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="88"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="89"/>
       <c r="L36" s="88"/>
       <c r="M36" s="88"/>
       <c r="N36" s="88"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="104"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="88"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="112"/>
+      <c r="S36" s="104"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="107"/>
       <c r="B37" s="108"/>
       <c r="C37" s="109"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="89"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="105"/>
       <c r="G37" s="89"/>
       <c r="H37" s="89"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="88"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="89"/>
       <c r="L37" s="88"/>
       <c r="M37" s="88"/>
       <c r="N37" s="88"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="104"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O37" s="88"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="104"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="107"/>
       <c r="B38" s="108"/>
       <c r="C38" s="109"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="89"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="105"/>
       <c r="G38" s="89"/>
       <c r="H38" s="89"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="88"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
       <c r="N38" s="88"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="104"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O38" s="88"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="104"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="107"/>
       <c r="B39" s="108"/>
       <c r="C39" s="109"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="89"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="105"/>
       <c r="G39" s="89"/>
       <c r="H39" s="89"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="88"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="89"/>
       <c r="L39" s="88"/>
       <c r="M39" s="88"/>
       <c r="N39" s="88"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="104"/>
-    </row>
-    <row r="40" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="88"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="104"/>
+    </row>
+    <row r="40" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="92">
-        <f>SUM(D9:D39)</f>
+      <c r="E40" s="92">
+        <f>SUM(E9:E39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
       <c r="B41" s="94"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="124"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="124"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="91"/>
-      <c r="F42" s="80"/>
       <c r="G42" s="80"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="96"/>
-    </row>
-    <row r="43" spans="1:18" s="176" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="174" t="s">
+      <c r="H42" s="80"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="96"/>
+    </row>
+    <row r="43" spans="1:19" s="132" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="175"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="178"/>
-      <c r="M43" s="179"/>
-      <c r="N43" s="180"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B43" s="131"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="134"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="136"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="79"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
         <v>81</v>
       </c>
       <c r="C45" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="101" t="s">
+      <c r="D45" s="99"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="K45" s="102"/>
-      <c r="L45" s="101" t="s">
+      <c r="L45" s="102"/>
+      <c r="M45" s="101" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="79"/>
       <c r="C46" s="100"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="98"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="98"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="173"/>
-      <c r="C47" s="172" t="s">
+      <c r="D46" s="100"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="98"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="98"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="129"/>
+      <c r="C47" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="173" t="s">
+      <c r="D47" s="128"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="K47" s="102"/>
-      <c r="L47" s="171" t="s">
+      <c r="L47" s="102"/>
+      <c r="M47" s="127" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="99" t="s">
         <v>84</v>
       </c>
@@ -2508,54 +2522,55 @@
       <c r="C48" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="99" t="s">
+      <c r="D48" s="99"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="91"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="99" t="s">
+      <c r="J48" s="91"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="99" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="79"/>
-      <c r="E49" s="97" t="s">
+      <c r="F49" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="79" t="s">
+      <c r="H49" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J49" s="145"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="79"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="91"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A2:R2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:R7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="119" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentOddEven="1" differentFirst="1">
     <oddHeader>&amp;C&amp;"Verdana,Bold Italic"&amp;12&amp;UGOVERNMENT PROCUREMENT POLICY BOARD-TECHNICAL SUPPORT OFFICE
 &amp;"Verdana,Italic"&amp;9Unit 2506, Raffles Corporate Center, F. Ortigas Jr. Road, Ortigas Center, Pasig City</oddHeader>
@@ -2565,7 +2580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6B1786-75C9-489D-8A00-210B6AE71737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2577,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2619,10 +2634,10 @@
       <c r="D1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="167"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="56" t="s">
         <v>44</v>
       </c>
@@ -2714,7 +2729,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="149" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -2723,15 +2738,15 @@
       <c r="C4" s="8">
         <v>6</v>
       </c>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="154" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="146" t="s">
+      <c r="H4" s="157" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="76"/>
@@ -2739,7 +2754,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="5"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="161" t="s">
+      <c r="N4" s="160" t="s">
         <v>45</v>
       </c>
       <c r="O4" s="57"/>
@@ -2747,47 +2762,47 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="168"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="71">
         <v>1</v>
       </c>
       <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="164"/>
-      <c r="E5" s="137"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="155"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="147"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="76"/>
       <c r="J5" s="66"/>
       <c r="K5" s="39"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="162"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="58"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="168"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="71">
         <v>2</v>
       </c>
       <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="138"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="148"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="76"/>
       <c r="J6" s="66"/>
       <c r="K6" s="40"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="163"/>
+      <c r="N6" s="162"/>
       <c r="O6" s="59"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3"/>
@@ -2801,7 +2816,7 @@
         <f>SUM(C4:C6)</f>
         <v>15</v>
       </c>
-      <c r="D7" s="170"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="37">
         <v>11320</v>
       </c>
@@ -2830,7 +2845,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="172" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="71">
@@ -2839,63 +2854,63 @@
       <c r="C8" s="8">
         <v>7</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="151" t="s">
+      <c r="E8" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="165"/>
+      <c r="F8" s="166"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="140"/>
+      <c r="H8" s="163"/>
       <c r="I8" s="76"/>
       <c r="J8" s="66"/>
       <c r="K8" s="48"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="143"/>
+      <c r="N8" s="165"/>
       <c r="O8" s="69"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="71" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="164"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="165"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="141"/>
+      <c r="H9" s="164"/>
       <c r="I9" s="76"/>
       <c r="J9" s="66"/>
       <c r="K9" s="49"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="143"/>
+      <c r="N9" s="165"/>
       <c r="O9" s="69"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="71" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="165"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="166"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="139" t="s">
+      <c r="H10" s="168" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="76"/>
@@ -2903,7 +2918,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="142" t="s">
+      <c r="N10" s="169" t="s">
         <v>74</v>
       </c>
       <c r="O10" s="68"/>
@@ -2911,47 +2926,47 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="71">
         <v>5</v>
       </c>
       <c r="C11" s="8">
         <v>6</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="165"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="166"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="140"/>
+      <c r="H11" s="163"/>
       <c r="I11" s="76"/>
       <c r="J11" s="66"/>
       <c r="K11" s="41"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="143"/>
+      <c r="N11" s="165"/>
       <c r="O11" s="69"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="148"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="71">
         <v>6</v>
       </c>
       <c r="C12" s="8">
         <v>6</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="165"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="166"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="141"/>
+      <c r="H12" s="164"/>
       <c r="I12" s="76"/>
       <c r="J12" s="66"/>
       <c r="K12" s="42"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="144"/>
+      <c r="N12" s="170"/>
       <c r="O12" s="70"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
@@ -2965,11 +2980,11 @@
         <f>SUM(C8:C12)</f>
         <v>29</v>
       </c>
-      <c r="D13" s="148"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="12">
         <v>2000</v>
       </c>
-      <c r="F13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="16"/>
       <c r="H13" s="74">
         <v>5800</v>
@@ -2996,7 +3011,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="149" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="71">
@@ -3005,24 +3020,24 @@
       <c r="C14" s="8">
         <v>4</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="136" t="s">
+      <c r="F14" s="154" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="168" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="76"/>
       <c r="J14" s="53"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="142" t="s">
+      <c r="N14" s="169" t="s">
         <v>48</v>
       </c>
       <c r="O14" s="68"/>
@@ -3030,47 +3045,47 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="71">
         <v>8</v>
       </c>
       <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="137"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="155"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="140"/>
+      <c r="H15" s="163"/>
       <c r="I15" s="76"/>
       <c r="J15" s="66"/>
       <c r="K15" s="47"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="143"/>
+      <c r="N15" s="165"/>
       <c r="O15" s="69"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="71">
         <v>9</v>
       </c>
       <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="138"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="156"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="141"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="76"/>
       <c r="J16" s="66"/>
       <c r="K16" s="41"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="144"/>
+      <c r="N16" s="170"/>
       <c r="O16" s="70"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
@@ -3084,7 +3099,7 @@
         <f>SUM(C14:C16)</f>
         <v>13</v>
       </c>
-      <c r="D17" s="148"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="18">
         <v>4000</v>
       </c>
@@ -3114,7 +3129,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="149" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="71">
@@ -3123,25 +3138,25 @@
       <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c r="D18" s="154" t="s">
+      <c r="D18" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="155">
+      <c r="E18" s="177">
         <f t="shared" ref="E18" si="0">SUM(E17)</f>
         <v>4000</v>
       </c>
-      <c r="F18" s="136" t="s">
+      <c r="F18" s="154" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="158" t="s">
+      <c r="H18" s="180" t="s">
         <v>54</v>
       </c>
       <c r="I18" s="76"/>
       <c r="J18" s="53"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="136" t="s">
+      <c r="N18" s="154" t="s">
         <v>49</v>
       </c>
       <c r="O18" s="62"/>
@@ -3149,70 +3164,70 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="71">
         <v>11</v>
       </c>
       <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="137"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="155"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="159"/>
+      <c r="H19" s="181"/>
       <c r="I19" s="76"/>
       <c r="J19" s="66"/>
       <c r="K19" s="44"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="137"/>
+      <c r="N19" s="155"/>
       <c r="O19" s="63"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
+      <c r="A20" s="149"/>
       <c r="B20" s="71">
         <v>12</v>
       </c>
       <c r="C20" s="8">
         <v>4</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="137"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="155"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="159"/>
+      <c r="H20" s="181"/>
       <c r="I20" s="76"/>
       <c r="J20" s="66"/>
       <c r="K20" s="44"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="137"/>
+      <c r="N20" s="155"/>
       <c r="O20" s="63"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="145"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="71">
         <v>13</v>
       </c>
       <c r="C21" s="8">
         <v>5</v>
       </c>
-      <c r="D21" s="154"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="137"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="155"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="159"/>
+      <c r="H21" s="181"/>
       <c r="I21" s="76"/>
       <c r="J21" s="66"/>
       <c r="K21" s="44"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="137"/>
+      <c r="N21" s="155"/>
       <c r="O21" s="63"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
@@ -3223,17 +3238,17 @@
         <v>32</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="138"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="160"/>
+      <c r="H22" s="182"/>
       <c r="I22" s="76"/>
       <c r="J22" s="66"/>
       <c r="K22" s="45"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="138"/>
+      <c r="N22" s="156"/>
       <c r="O22" s="64"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
@@ -3720,17 +3735,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="D10:D13"/>
     <mergeCell ref="N18:N22"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="N10:N12"/>
@@ -3747,6 +3751,17 @@
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="F18:F22"/>
     <mergeCell ref="H18:H22"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.25" header="0.3" footer="0.3"/>

--- a/public/ppmp.xlsx
+++ b/public/ppmp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjmendez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="10185" tabRatio="767" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="767" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PPMP form" sheetId="19" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="FINAL" sheetId="21" r:id="rId3"/>
     <sheet name="Updated Budget -PMD as of 10-1" sheetId="15" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="345">
   <si>
     <t>CODE</t>
   </si>
@@ -2793,14 +2793,26 @@
   <si>
     <t>sachet</t>
   </si>
+  <si>
+    <t>Division Chief</t>
+  </si>
+  <si>
+    <t>__________________</t>
+  </si>
+  <si>
+    <t>_____________</t>
+  </si>
+  <si>
+    <t>Section Head</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
@@ -3491,17 +3503,17 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3509,7 +3521,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3535,7 +3547,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3547,19 +3559,19 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3595,27 +3607,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3631,7 +3643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3665,13 +3677,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3692,19 +3704,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3715,7 +3727,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3737,7 +3749,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3747,7 +3759,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3779,7 +3791,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3818,7 +3830,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3833,12 +3845,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3872,7 +3884,7 @@
     <xf numFmtId="1" fontId="32" fillId="0" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="27" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="27" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="10" applyBorder="1" applyAlignment="1">
@@ -3908,7 +3920,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="22" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="22" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
@@ -3952,7 +3964,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="28" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="28" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -4006,64 +4018,64 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4088,32 +4100,32 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -4131,10 +4143,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4146,10 +4158,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -4176,10 +4188,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4191,109 +4203,109 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4344,7 +4356,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29815802-2763-440E-A5C4-D5AB29CEFE09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29815802-2763-440E-A5C4-D5AB29CEFE09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4397,7 +4409,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5494DBCB-4C74-4BE1-8573-3CF304E26724}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5494DBCB-4C74-4BE1-8573-3CF304E26724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4484,7 @@
         <xdr:cNvPr id="4" name="Right Brace 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2BD43D-7678-4F90-A6B5-20C49E308D24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D2BD43D-7678-4F90-A6B5-20C49E308D24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4537,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFDF50D-7DF5-404B-9D23-2D4C29D9679A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAFDF50D-7DF5-404B-9D23-2D4C29D9679A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4616,7 @@
         <xdr:cNvPr id="6" name="Right Brace 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C718C21E-DEE8-45AF-9E21-E8F0D2987B62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C718C21E-DEE8-45AF-9E21-E8F0D2987B62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4662,7 +4674,7 @@
         <xdr:cNvPr id="7" name="Right Brace 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630BD33B-8A47-4C83-9891-9AFA55171636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{630BD33B-8A47-4C83-9891-9AFA55171636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6623,7 +6635,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="119" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentOddEven="1" differentFirst="1">
     <oddHeader>&amp;C&amp;"Verdana,Bold Italic"&amp;12&amp;UGOVERNMENT PROCUREMENT POLICY BOARD-TECHNICAL SUPPORT OFFICE
 &amp;"Verdana,Italic"&amp;9Unit 2506, Raffles Corporate Center, F. Ortigas Jr. Road, Ortigas Center, Pasig City</oddHeader>
@@ -7670,6 +7682,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -7677,11 +7694,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:S7"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7693,10 +7705,10 @@
   <dimension ref="A1:T337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B190" sqref="B190"/>
+      <selection pane="bottomRight" activeCell="H325" sqref="H325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16282,7 +16294,9 @@
       <c r="N316" s="186"/>
     </row>
     <row r="317" spans="1:19" s="82" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A317" s="187"/>
+      <c r="A317" s="187" t="s">
+        <v>343</v>
+      </c>
       <c r="B317" s="79"/>
       <c r="C317" s="187" t="s">
         <v>90</v>
@@ -16291,7 +16305,7 @@
       <c r="E317" s="206"/>
       <c r="F317" s="83"/>
       <c r="H317" s="187" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="M317" s="183"/>
       <c r="N317" s="187" t="s">
@@ -16300,7 +16314,7 @@
     </row>
     <row r="318" spans="1:19" s="82" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="189" t="s">
-        <v>84</v>
+        <v>344</v>
       </c>
       <c r="B318" s="90"/>
       <c r="C318" s="181" t="s">
@@ -16310,7 +16324,7 @@
       <c r="E318" s="204"/>
       <c r="F318" s="83"/>
       <c r="H318" s="189" t="s">
-        <v>85</v>
+        <v>341</v>
       </c>
       <c r="K318" s="90"/>
       <c r="M318" s="190"/>
@@ -16566,10 +16580,10 @@
       <c r="D1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="257" t="s">
+      <c r="E1" s="288" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="257"/>
+      <c r="F1" s="288"/>
       <c r="G1" s="56" t="s">
         <v>44</v>
       </c>
@@ -16661,7 +16675,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="266" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -16670,15 +16684,15 @@
       <c r="C4" s="8">
         <v>6</v>
       </c>
-      <c r="D4" s="260" t="s">
+      <c r="D4" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="263" t="s">
+      <c r="E4" s="257" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="266" t="s">
+      <c r="H4" s="267" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="76"/>
@@ -16686,7 +16700,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="5"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="269" t="s">
+      <c r="N4" s="282" t="s">
         <v>45</v>
       </c>
       <c r="O4" s="57"/>
@@ -16694,47 +16708,47 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="259"/>
+      <c r="A5" s="289"/>
       <c r="B5" s="71">
         <v>1</v>
       </c>
       <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="264"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="258"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="267"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="76"/>
       <c r="J5" s="66"/>
       <c r="K5" s="39"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="270"/>
+      <c r="N5" s="283"/>
       <c r="O5" s="58"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="259"/>
+      <c r="A6" s="289"/>
       <c r="B6" s="71">
         <v>2</v>
       </c>
       <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="261"/>
-      <c r="E6" s="265"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="259"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="268"/>
+      <c r="H6" s="269"/>
       <c r="I6" s="76"/>
       <c r="J6" s="66"/>
       <c r="K6" s="40"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="271"/>
+      <c r="N6" s="284"/>
       <c r="O6" s="59"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3"/>
@@ -16748,7 +16762,7 @@
         <f>SUM(C4:C6)</f>
         <v>15</v>
       </c>
-      <c r="D7" s="262"/>
+      <c r="D7" s="291"/>
       <c r="E7" s="37">
         <v>11320</v>
       </c>
@@ -16777,7 +16791,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="281" t="s">
+      <c r="A8" s="271" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="71">
@@ -16786,63 +16800,63 @@
       <c r="C8" s="8">
         <v>7</v>
       </c>
-      <c r="D8" s="261" t="s">
+      <c r="D8" s="285" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="282" t="s">
+      <c r="E8" s="272" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="275"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="272"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="76"/>
       <c r="J8" s="66"/>
       <c r="K8" s="48"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="274"/>
+      <c r="N8" s="264"/>
       <c r="O8" s="69"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="267"/>
+      <c r="A9" s="268"/>
       <c r="B9" s="71" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="261"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="275"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="286"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="273"/>
+      <c r="H9" s="262"/>
       <c r="I9" s="76"/>
       <c r="J9" s="66"/>
       <c r="K9" s="49"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="274"/>
+      <c r="N9" s="264"/>
       <c r="O9" s="69"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="267"/>
+      <c r="A10" s="268"/>
       <c r="B10" s="71" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="266" t="s">
+      <c r="D10" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="283"/>
-      <c r="F10" s="275"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="286"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="277" t="s">
+      <c r="H10" s="260" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="76"/>
@@ -16850,7 +16864,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="278" t="s">
+      <c r="N10" s="263" t="s">
         <v>74</v>
       </c>
       <c r="O10" s="68"/>
@@ -16858,47 +16872,47 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="267"/>
+      <c r="A11" s="268"/>
       <c r="B11" s="71">
         <v>5</v>
       </c>
       <c r="C11" s="8">
         <v>6</v>
       </c>
-      <c r="D11" s="267"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="275"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="286"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="272"/>
+      <c r="H11" s="261"/>
       <c r="I11" s="76"/>
       <c r="J11" s="66"/>
       <c r="K11" s="41"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="274"/>
+      <c r="N11" s="264"/>
       <c r="O11" s="69"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="268"/>
+      <c r="A12" s="269"/>
       <c r="B12" s="71">
         <v>6</v>
       </c>
       <c r="C12" s="8">
         <v>6</v>
       </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="284"/>
-      <c r="F12" s="275"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="274"/>
+      <c r="F12" s="286"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="273"/>
+      <c r="H12" s="262"/>
       <c r="I12" s="76"/>
       <c r="J12" s="66"/>
       <c r="K12" s="42"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="279"/>
+      <c r="N12" s="265"/>
       <c r="O12" s="70"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="3"/>
@@ -16912,11 +16926,11 @@
         <f>SUM(C8:C12)</f>
         <v>29</v>
       </c>
-      <c r="D13" s="268"/>
+      <c r="D13" s="269"/>
       <c r="E13" s="12">
         <v>2000</v>
       </c>
-      <c r="F13" s="276"/>
+      <c r="F13" s="287"/>
       <c r="G13" s="16"/>
       <c r="H13" s="74">
         <v>5800</v>
@@ -16943,7 +16957,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="258" t="s">
+      <c r="A14" s="266" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="71">
@@ -16952,24 +16966,24 @@
       <c r="C14" s="8">
         <v>4</v>
       </c>
-      <c r="D14" s="266" t="s">
+      <c r="D14" s="267" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="280" t="s">
+      <c r="E14" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="263" t="s">
+      <c r="F14" s="257" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="277" t="s">
+      <c r="H14" s="260" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="76"/>
       <c r="J14" s="53"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="278" t="s">
+      <c r="N14" s="263" t="s">
         <v>48</v>
       </c>
       <c r="O14" s="68"/>
@@ -16977,47 +16991,47 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="258"/>
+      <c r="A15" s="266"/>
       <c r="B15" s="71">
         <v>8</v>
       </c>
       <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="267"/>
-      <c r="E15" s="280"/>
-      <c r="F15" s="264"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="258"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="272"/>
+      <c r="H15" s="261"/>
       <c r="I15" s="76"/>
       <c r="J15" s="66"/>
       <c r="K15" s="47"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="274"/>
+      <c r="N15" s="264"/>
       <c r="O15" s="69"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="258"/>
+      <c r="A16" s="266"/>
       <c r="B16" s="71">
         <v>9</v>
       </c>
       <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="267"/>
-      <c r="E16" s="280"/>
-      <c r="F16" s="265"/>
+      <c r="D16" s="268"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="259"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="273"/>
+      <c r="H16" s="262"/>
       <c r="I16" s="76"/>
       <c r="J16" s="66"/>
       <c r="K16" s="41"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="279"/>
+      <c r="N16" s="265"/>
       <c r="O16" s="70"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
@@ -17031,7 +17045,7 @@
         <f>SUM(C14:C16)</f>
         <v>13</v>
       </c>
-      <c r="D17" s="268"/>
+      <c r="D17" s="269"/>
       <c r="E17" s="18">
         <v>4000</v>
       </c>
@@ -17061,7 +17075,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="258" t="s">
+      <c r="A18" s="266" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="71">
@@ -17070,25 +17084,25 @@
       <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c r="D18" s="285" t="s">
+      <c r="D18" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="286">
+      <c r="E18" s="276">
         <f t="shared" ref="E18" si="0">SUM(E17)</f>
         <v>4000</v>
       </c>
-      <c r="F18" s="263" t="s">
+      <c r="F18" s="257" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="289" t="s">
+      <c r="H18" s="279" t="s">
         <v>54</v>
       </c>
       <c r="I18" s="76"/>
       <c r="J18" s="53"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="263" t="s">
+      <c r="N18" s="257" t="s">
         <v>49</v>
       </c>
       <c r="O18" s="62"/>
@@ -17096,70 +17110,70 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="258"/>
+      <c r="A19" s="266"/>
       <c r="B19" s="71">
         <v>11</v>
       </c>
       <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="D19" s="285"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="264"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="277"/>
+      <c r="F19" s="258"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="290"/>
+      <c r="H19" s="280"/>
       <c r="I19" s="76"/>
       <c r="J19" s="66"/>
       <c r="K19" s="44"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="264"/>
+      <c r="N19" s="258"/>
       <c r="O19" s="63"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="258"/>
+      <c r="A20" s="266"/>
       <c r="B20" s="71">
         <v>12</v>
       </c>
       <c r="C20" s="8">
         <v>4</v>
       </c>
-      <c r="D20" s="285"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="264"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="277"/>
+      <c r="F20" s="258"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="290"/>
+      <c r="H20" s="280"/>
       <c r="I20" s="76"/>
       <c r="J20" s="66"/>
       <c r="K20" s="44"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="264"/>
+      <c r="N20" s="258"/>
       <c r="O20" s="63"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="258"/>
+      <c r="A21" s="266"/>
       <c r="B21" s="71">
         <v>13</v>
       </c>
       <c r="C21" s="8">
         <v>5</v>
       </c>
-      <c r="D21" s="285"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="264"/>
+      <c r="D21" s="275"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="258"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="290"/>
+      <c r="H21" s="280"/>
       <c r="I21" s="76"/>
       <c r="J21" s="66"/>
       <c r="K21" s="44"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="264"/>
+      <c r="N21" s="258"/>
       <c r="O21" s="63"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
@@ -17170,17 +17184,17 @@
         <v>32</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="285"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="265"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="278"/>
+      <c r="F22" s="259"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="291"/>
+      <c r="H22" s="281"/>
       <c r="I22" s="76"/>
       <c r="J22" s="66"/>
       <c r="K22" s="45"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="265"/>
+      <c r="N22" s="259"/>
       <c r="O22" s="64"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
@@ -17667,6 +17681,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="N18:N22"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="N10:N12"/>
@@ -17683,17 +17708,6 @@
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="F18:F22"/>
     <mergeCell ref="H18:H22"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.25" header="0.3" footer="0.3"/>
